--- a/DataFrame_reconstruido/Polvo_artesanal_reconstruido.xlsx
+++ b/DataFrame_reconstruido/Polvo_artesanal_reconstruido.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>5.117504119873047</v>
+        <v>11.26203346252441</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>5.395412445068359</v>
+        <v>11.11787414550781</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>5.682249069213867</v>
+        <v>10.97369766235352</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>5.920269012451172</v>
+        <v>10.82726287841797</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>6.15827751159668</v>
+        <v>10.66909790039062</v>
       </c>
     </row>
     <row r="7">
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>6.396324157714844</v>
+        <v>10.51103591918945</v>
       </c>
     </row>
     <row r="8">
@@ -510,7 +510,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>6.634347915649414</v>
+        <v>10.35287666320801</v>
       </c>
     </row>
     <row r="9">
@@ -519,7 +519,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>6.865240097045898</v>
+        <v>10.19474411010742</v>
       </c>
     </row>
     <row r="10">
@@ -528,7 +528,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>7.097885131835938</v>
+        <v>10.03663063049316</v>
       </c>
     </row>
     <row r="11">
@@ -618,7 +618,7 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>13.0520191192627</v>
+        <v>17.66813659667969</v>
       </c>
     </row>
     <row r="21">
@@ -627,7 +627,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>21.43485641479492</v>
+        <v>28.1050968170166</v>
       </c>
     </row>
     <row r="22">
@@ -636,7 +636,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>30.16252517700195</v>
+        <v>72.23731231689453</v>
       </c>
     </row>
     <row r="23">
@@ -645,7 +645,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>77.50367736816406</v>
+        <v>125.1316986083984</v>
       </c>
     </row>
     <row r="24">
@@ -654,7 +654,7 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>129.3473052978516</v>
+        <v>174.1178588867188</v>
       </c>
     </row>
     <row r="25">
@@ -843,7 +843,7 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>16.98220825195312</v>
+        <v>16.87678909301758</v>
       </c>
     </row>
     <row r="46">

--- a/DataFrame_reconstruido/Polvo_artesanal_reconstruido.xlsx
+++ b/DataFrame_reconstruido/Polvo_artesanal_reconstruido.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>11.26203346252441</v>
+        <v>2.423122406005859</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>11.11787414550781</v>
+        <v>2.832059860229492</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>10.97369766235352</v>
+        <v>3.257843017578125</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>10.82726287841797</v>
+        <v>3.68608283996582</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>10.66909790039062</v>
+        <v>4.116985321044922</v>
       </c>
     </row>
     <row r="7">
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>10.51103591918945</v>
+        <v>4.55958366394043</v>
       </c>
     </row>
     <row r="8">
@@ -510,7 +510,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>10.35287666320801</v>
+        <v>4.963535308837891</v>
       </c>
     </row>
     <row r="9">
@@ -519,7 +519,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>10.19474411010742</v>
+        <v>5.38804817199707</v>
       </c>
     </row>
     <row r="10">
@@ -528,7 +528,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>10.03663063049316</v>
+        <v>5.812967300415039</v>
       </c>
     </row>
     <row r="11">
@@ -618,7 +618,7 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>17.66813659667969</v>
+        <v>12.60311508178711</v>
       </c>
     </row>
     <row r="21">
@@ -627,7 +627,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>28.1050968170166</v>
+        <v>22.7193431854248</v>
       </c>
     </row>
     <row r="22">
@@ -636,7 +636,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>72.23731231689453</v>
+        <v>41.96781158447266</v>
       </c>
     </row>
     <row r="23">
@@ -645,7 +645,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>125.1316986083984</v>
+        <v>89.00920104980469</v>
       </c>
     </row>
     <row r="24">
@@ -654,7 +654,7 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>174.1178588867188</v>
+        <v>134.3271636962891</v>
       </c>
     </row>
     <row r="25">
@@ -843,7 +843,7 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>16.87678909301758</v>
+        <v>16.33827209472656</v>
       </c>
     </row>
     <row r="46">

--- a/DataFrame_reconstruido/Polvo_artesanal_reconstruido.xlsx
+++ b/DataFrame_reconstruido/Polvo_artesanal_reconstruido.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>2.423122406005859</v>
+        <v>4.475290298461914</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>2.832059860229492</v>
+        <v>4.791296005249023</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>3.257843017578125</v>
+        <v>5.06492805480957</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>3.68608283996582</v>
+        <v>5.334541320800781</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>4.116985321044922</v>
+        <v>5.567598342895508</v>
       </c>
     </row>
     <row r="7">
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>4.55958366394043</v>
+        <v>5.800298690795898</v>
       </c>
     </row>
     <row r="8">
@@ -510,7 +510,7 @@
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>4.963535308837891</v>
+        <v>6.032991409301758</v>
       </c>
     </row>
     <row r="9">
@@ -519,7 +519,7 @@
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>5.38804817199707</v>
+        <v>6.265666961669922</v>
       </c>
     </row>
     <row r="10">
@@ -528,7 +528,7 @@
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>5.812967300415039</v>
+        <v>6.49748420715332</v>
       </c>
     </row>
     <row r="11">
@@ -618,7 +618,7 @@
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>12.60311508178711</v>
+        <v>10.32311820983887</v>
       </c>
     </row>
     <row r="21">
@@ -627,7 +627,7 @@
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>22.7193431854248</v>
+        <v>19.0850944519043</v>
       </c>
     </row>
     <row r="22">
@@ -636,7 +636,7 @@
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>41.96781158447266</v>
+        <v>28.51825714111328</v>
       </c>
     </row>
     <row r="23">
@@ -645,7 +645,7 @@
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>89.00920104980469</v>
+        <v>69.38578796386719</v>
       </c>
     </row>
     <row r="24">
@@ -654,7 +654,7 @@
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>134.3271636962891</v>
+        <v>118.2855682373047</v>
       </c>
     </row>
     <row r="25">
@@ -843,7 +843,7 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>16.33827209472656</v>
+        <v>11.82942962646484</v>
       </c>
     </row>
     <row r="46">

--- a/DataFrame_reconstruido/Polvo_artesanal_reconstruido.xlsx
+++ b/DataFrame_reconstruido/Polvo_artesanal_reconstruido.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,453 +452,624 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1969</v>
+        <v>1950</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>4.475290298461914</v>
+        <v>-18.6901683807373</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1970</v>
+        <v>1951</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>4.791296005249023</v>
+        <v>-17.84457969665527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1971</v>
+        <v>1952</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>5.06492805480957</v>
+        <v>-16.99898719787598</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1972</v>
+        <v>1953</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>5.334541320800781</v>
+        <v>-16.1534252166748</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1973</v>
+        <v>1954</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>5.567598342895508</v>
+        <v>-15.30777931213379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1974</v>
+        <v>1955</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>5.800298690795898</v>
+        <v>-14.46221733093262</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1975</v>
+        <v>1956</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>6.032991409301758</v>
+        <v>-13.61666679382324</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1976</v>
+        <v>1957</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>6.265666961669922</v>
+        <v>-12.77106666564941</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1977</v>
+        <v>1958</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>6.49748420715332</v>
+        <v>-11.92549324035645</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1978</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>1959</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
+        <v>-11.0798511505127</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1979</v>
-      </c>
-      <c r="B12" t="n">
-        <v>8</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>1960</v>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
+        <v>-10.23427391052246</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1980</v>
-      </c>
-      <c r="B13" t="n">
-        <v>13</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>1961</v>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
+        <v>-9.388689041137695</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1981</v>
-      </c>
-      <c r="B14" t="n">
-        <v>14</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>1962</v>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
+        <v>-8.543085098266602</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1982</v>
-      </c>
-      <c r="B15" t="n">
-        <v>3</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>1963</v>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
+        <v>-7.697519302368164</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1983</v>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>1964</v>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
+        <v>-6.85194206237793</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1985</v>
-      </c>
-      <c r="B17" t="n">
-        <v>12</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>1965</v>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
+        <v>-6.006330490112305</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1986</v>
-      </c>
-      <c r="B18" t="n">
-        <v>9</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>1966</v>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
+        <v>-5.160737991333008</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1989</v>
-      </c>
-      <c r="B19" t="n">
-        <v>6</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>1967</v>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>-4.314680099487305</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1990</v>
+        <v>1968</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>10.32311820983887</v>
+        <v>-3.463666915893555</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1991</v>
+        <v>1969</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>19.0850944519043</v>
+        <v>-2.612661361694336</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1992</v>
+        <v>1970</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>28.51825714111328</v>
+        <v>-1.76164436340332</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1993</v>
+        <v>1971</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>69.38578796386719</v>
+        <v>-0.9106311798095703</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1994</v>
+        <v>1972</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>118.2855682373047</v>
+        <v>-0.05962562561035156</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1995</v>
-      </c>
-      <c r="B25" t="n">
-        <v>165</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>1973</v>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
+        <v>0.7906742095947266</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1997</v>
-      </c>
-      <c r="B26" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>1974</v>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
+        <v>1.636104583740234</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1998</v>
-      </c>
-      <c r="B27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>1975</v>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
+        <v>2.481521606445312</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1999</v>
-      </c>
-      <c r="B28" t="n">
-        <v>57.5</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>1976</v>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>3.32696533203125</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B29" t="n">
-        <v>17</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
+        <v>1977</v>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
+        <v>4.172374725341797</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>2001</v>
+        <v>1978</v>
       </c>
       <c r="B30" t="n">
-        <v>45.5</v>
+        <v>2</v>
       </c>
       <c r="C30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2002</v>
+        <v>1979</v>
       </c>
       <c r="B31" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>2003</v>
+        <v>1980</v>
       </c>
       <c r="B32" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2004</v>
+        <v>1981</v>
       </c>
       <c r="B33" t="n">
-        <v>35.5</v>
+        <v>14</v>
       </c>
       <c r="C33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2005</v>
+        <v>1982</v>
       </c>
       <c r="B34" t="n">
-        <v>39.5</v>
+        <v>3</v>
       </c>
       <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2006</v>
+        <v>1983</v>
       </c>
       <c r="B35" t="n">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="C35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2007</v>
+        <v>1985</v>
       </c>
       <c r="B36" t="n">
-        <v>20.5</v>
+        <v>12</v>
       </c>
       <c r="C36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2008</v>
+        <v>1986</v>
       </c>
       <c r="B37" t="n">
-        <v>35.04100036621094</v>
+        <v>9</v>
       </c>
       <c r="C37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>2009</v>
+        <v>1989</v>
       </c>
       <c r="B38" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2010</v>
-      </c>
-      <c r="B39" t="n">
-        <v>3.727999925613403</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
+        <v>1990</v>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="n">
+        <v>16.32737350463867</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>2011</v>
-      </c>
-      <c r="B40" t="n">
-        <v>4.710999965667725</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>1991</v>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="n">
+        <v>23.90093803405762</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>2012</v>
-      </c>
-      <c r="B41" t="n">
-        <v>11.93900012969971</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
+        <v>1992</v>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="n">
+        <v>41.4112548828125</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>2013</v>
-      </c>
-      <c r="B42" t="n">
-        <v>13.80200004577637</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
+        <v>1993</v>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="n">
+        <v>88.92635345458984</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>2014</v>
-      </c>
-      <c r="B43" t="n">
-        <v>3.822999954223633</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
+        <v>1994</v>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="n">
+        <v>135.4790649414062</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2015</v>
+        <v>1995</v>
       </c>
       <c r="B44" t="n">
-        <v>0.00800000037997961</v>
+        <v>165</v>
       </c>
       <c r="C44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2016</v>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="n">
-        <v>11.82942962646484</v>
-      </c>
+        <v>1997</v>
+      </c>
+      <c r="B45" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="C45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>2017</v>
+        <v>1998</v>
       </c>
       <c r="B46" t="n">
-        <v>40.42755126953125</v>
+        <v>5.5</v>
       </c>
       <c r="C46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>2018</v>
+        <v>1999</v>
       </c>
       <c r="B47" t="n">
-        <v>101.0382995605469</v>
+        <v>57.5</v>
       </c>
       <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2019</v>
+        <v>2000</v>
       </c>
       <c r="B48" t="n">
-        <v>89.39240264892578</v>
+        <v>17</v>
       </c>
       <c r="C48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2020</v>
+        <v>2001</v>
       </c>
       <c r="B49" t="n">
-        <v>80.21074676513672</v>
+        <v>45.5</v>
       </c>
       <c r="C49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2021</v>
+        <v>2002</v>
       </c>
       <c r="B50" t="n">
-        <v>37.11550140380859</v>
+        <v>32</v>
       </c>
       <c r="C50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B51" t="n">
+        <v>31</v>
+      </c>
+      <c r="C51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B52" t="n">
+        <v>35.5</v>
+      </c>
+      <c r="C52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B53" t="n">
+        <v>39.5</v>
+      </c>
+      <c r="C53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B54" t="n">
+        <v>45</v>
+      </c>
+      <c r="C54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B55" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="C55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B56" t="n">
+        <v>35.04100036621094</v>
+      </c>
+      <c r="C56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B57" t="n">
+        <v>7</v>
+      </c>
+      <c r="C57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3.727999925613403</v>
+      </c>
+      <c r="C58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4.710999965667725</v>
+      </c>
+      <c r="C59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B60" t="n">
+        <v>11.93900012969971</v>
+      </c>
+      <c r="C60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B61" t="n">
+        <v>13.80200004577637</v>
+      </c>
+      <c r="C61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B62" t="n">
+        <v>3.822999954223633</v>
+      </c>
+      <c r="C62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.00800000037997961</v>
+      </c>
+      <c r="C63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B64" t="inlineStr"/>
+      <c r="C64" t="n">
+        <v>12.27786445617676</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B65" t="n">
+        <v>40.42755126953125</v>
+      </c>
+      <c r="C65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B66" t="n">
+        <v>101.0382995605469</v>
+      </c>
+      <c r="C66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B67" t="n">
+        <v>89.39240264892578</v>
+      </c>
+      <c r="C67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B68" t="n">
+        <v>80.21074676513672</v>
+      </c>
+      <c r="C68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B69" t="n">
+        <v>37.11550140380859</v>
+      </c>
+      <c r="C69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
         <v>2022</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B70" t="n">
         <v>42.80265045166016</v>
       </c>
-      <c r="C51" t="inlineStr"/>
+      <c r="C70" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
